--- a/survey3/survey3.xlsx
+++ b/survey3/survey3.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28160" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="full" sheetId="2" r:id="rId2"/>
+    <sheet name="mae_full" sheetId="2" r:id="rId2"/>
     <sheet name="min" sheetId="3" r:id="rId3"/>
+    <sheet name="mae" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -285,6 +286,12 @@
   <si>
     <t>Percentile</t>
   </si>
+  <si>
+    <t>mae tone mean</t>
+  </si>
+  <si>
+    <t>Predicted mae tone mean</t>
+  </si>
 </sst>
 </file>
 
@@ -319,18 +326,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -365,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,8 +379,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,12 +428,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>How often do you listen to music? Line Fit  Plot</a:t>
+              <a:t>pitch Line Fit  Plot</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -500,30 +498,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>min!$B$2:$B$32</c:f>
+              <c:f>min!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.0</c:v>
@@ -532,70 +530,70 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,30 +732,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>min!$B$2:$B$32</c:f>
+              <c:f>min!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.0</c:v>
@@ -766,70 +764,70 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,11 +944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1967065232"/>
-        <c:axId val="1933457184"/>
+        <c:axId val="-1684102544"/>
+        <c:axId val="-1684098784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1967065232"/>
+        <c:axId val="-1684102544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,12 +975,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>How often do you listen to music?</a:t>
+                  <a:t>pitch</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1048,12 +1045,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933457184"/>
+        <c:crossAx val="-1684098784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1933457184"/>
+        <c:axId val="-1684098784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1145,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1967065232"/>
+        <c:crossAx val="-1684102544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1159,7 +1155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1241,2235 +1236,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>familyMusicality Line Fit  Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tone mean</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min!$C$2:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min!$I$2:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>22.36383531780337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.17069265496563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.37012405420673</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.17333054688262</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.82777803774897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.71848549479763</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.27102088244897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.74671146225288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.14765077969164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.14470038925123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.09700362565237</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.79783561800353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.36874464878738</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.68087937576337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.80706319060185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.28464778341253</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.31576111021953</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.39829102259701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.55005231950328</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.17671749568652</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.00929805092328</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.40582951916362</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.70504906116475</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.39528835270532</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.81431292517832</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.64535806743611</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.71680388032766</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.78798106190664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.32346840740733</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.48781609392744</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.21449680027047</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Predicted tone mean</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min!$C$2:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min!$L$27:$L$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.15718919135741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.46958568584427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.74724847651295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.46742001234685</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.95114382539849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.95114382539849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.22664094256974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.98802754629006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.81554528388624</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.33398714433203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.02057992018678</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.29710342344046</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.92072581215111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.4327019649527</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.18975722167817</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.50646940673584</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.98802754629006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.67348103472981</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.84809765778297</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.84594764070958</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.81554528388624</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.46958568584427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1936390144"/>
-        <c:axId val="1933451248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1936390144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>familyMusicality</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1933451248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1933451248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>tone mean</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1936390144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>pitch Line Fit  Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tone mean</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min!$D$2:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min!$I$2:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>22.36383531780337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.17069265496563</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.37012405420673</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.17333054688262</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.82777803774897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.71848549479763</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.27102088244897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.74671146225288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.14765077969164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.14470038925123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.09700362565237</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.79783561800353</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.36874464878738</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.68087937576337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.80706319060185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.28464778341253</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.31576111021953</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.39829102259701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.55005231950328</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.17671749568652</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.00929805092328</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.40582951916362</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.70504906116475</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.39528835270532</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.81431292517832</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.64535806743611</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.71680388032766</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.78798106190664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.32346840740733</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.48781609392744</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.21449680027047</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Predicted tone mean</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min!$D$2:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min!$L$27:$L$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.15718919135741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.46958568584427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.74724847651295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.46742001234685</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.95114382539849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.95114382539849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.22664094256974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.98802754629006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.81554528388624</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.71036475562138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.33398714433203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.02057992018678</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.29710342344046</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.92072581215111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.4327019649527</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.18975722167817</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.50646940673584</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.98802754629006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.67348103472981</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.84809765778297</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.19192289517559</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.84594764070958</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.81554528388624</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.46958568584427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1931958912"/>
-        <c:axId val="1936035472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1931958912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>pitch</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1936035472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1936035472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>tone mean</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1931958912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Normal Probability Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>min!$O$27:$O$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.612903225806451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.838709677419354</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.064516129032257</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.29032258064516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.51612903225806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.74193548387097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.96774193548387</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.19354838709677</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.41935483870968</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.64516129032258</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.87096774193548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.09677419354838</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.32258064516128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.54838709677419</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.77419354838709</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53.2258064516129</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.4516129032258</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>59.6774193548387</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62.90322580645161</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>66.12903225806451</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69.35483870967741</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72.58064516129032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75.80645161290322</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>79.03225806451611</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>82.25806451612902</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>85.48387096774192</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>88.70967741935483</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>91.93548387096773</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>95.16129032258064</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>98.38709677419354</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>min!$P$27:$P$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>10.81431292517832</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.82777803774897</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.31576111021953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.39829102259701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.36874464878738</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.14470038925123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.17069265496563</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.17671749568652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.79783561800353</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.32346840740733</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.39528835270532</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.17333054688262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.48781609392744</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.09700362565237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.55005231950328</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.71680388032766</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.78798106190664</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.00929805092328</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.21449680027047</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.27102088244897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.28464778341253</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.74671146225288</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.80706319060185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.36383531780337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.71848549479763</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.14765077969164</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.64535806743611</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25.70504906116475</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.68087937576337</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.37012405420673</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.40582951916362</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1965753184"/>
-        <c:axId val="1930584672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1965753184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sample Percentile</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1930584672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1930584672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>tone mean</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1965753184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3744,11 +1510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934490224"/>
-        <c:axId val="1908519664"/>
+        <c:axId val="-1685522816"/>
+        <c:axId val="-1685520336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1934490224"/>
+        <c:axId val="-1685522816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,12 +1571,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1908519664"/>
+        <c:crossAx val="-1685520336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1908519664"/>
+        <c:axId val="-1685520336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3866,7 +1632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934490224"/>
+        <c:crossAx val="-1685522816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3956,126 +1722,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4619,1515 +2265,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6647,76 +2784,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6729,37 +2806,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6789,7 +2836,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9837,15 +5884,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P32"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9892,10 +5939,13 @@
         <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -9929,27 +5979,24 @@
       <c r="K2" s="2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>9.1165128968242701</v>
-      </c>
-      <c r="M2">
-        <v>31.581099041283</v>
-      </c>
-      <c r="N2">
-        <v>10.9929504696716</v>
-      </c>
-      <c r="O2">
-        <v>37.7647788634346</v>
+      <c r="L2" s="2">
+        <v>6.6730181679999996</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25.50758372</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8.5791957589999992</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32.259035539999999</v>
       </c>
       <c r="P2">
         <f>AVERAGE(L2:O2)</f>
-        <v>22.363835317803368</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>18.25470829675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -9983,24 +6030,28 @@
       <c r="K3" s="2">
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>5.28767357741481</v>
-      </c>
-      <c r="M3">
-        <v>16.7999893344825</v>
-      </c>
-      <c r="N3">
-        <v>16.947095026208601</v>
-      </c>
-      <c r="O3">
-        <v>29.648012681756601</v>
+      <c r="L3" s="2">
+        <v>4.1233514219999998</v>
+      </c>
+      <c r="M3" s="2">
+        <v>13.413152350000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12.990911499999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26.398476110000001</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P32" si="0">AVERAGE(L3:O3)</f>
-        <v>17.170692654965627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14.231472845500001</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -10034,28 +6085,30 @@
       <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>4.2152344928351297</v>
-      </c>
-      <c r="M4">
-        <v>19.6317503181814</v>
-      </c>
-      <c r="N4">
-        <v>22.965055809781099</v>
-      </c>
-      <c r="O4">
-        <v>74.668455596029304</v>
+      <c r="L4" s="2">
+        <v>3.6548335299999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>16.012060999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>18.737201630000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>40.881233119999997</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>30.370124054206734</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>19.82133232</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.57995549603664831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -10089,30 +6142,30 @@
       <c r="K5" s="2">
         <v>7</v>
       </c>
-      <c r="L5">
-        <v>4.9890270380546902</v>
-      </c>
-      <c r="M5">
-        <v>18.5649624381386</v>
-      </c>
-      <c r="N5">
-        <v>13.425172700451</v>
-      </c>
-      <c r="O5">
-        <v>39.714160010886197</v>
+      <c r="L5" s="2">
+        <v>3.6067721289999999</v>
+      </c>
+      <c r="M5" s="2">
+        <v>15.089889230000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>11.26502101</v>
+      </c>
+      <c r="O5" s="2">
+        <v>35.181411089999997</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>19.173330546882625</v>
+        <v>16.28577336475</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" s="4">
-        <v>0.62612529714549625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.33634837738311479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -10146,30 +6199,30 @@
       <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="L6">
-        <v>3.78925826700848</v>
-      </c>
-      <c r="M6">
-        <v>11.0664045563502</v>
-      </c>
-      <c r="N6">
-        <v>16.890751051599601</v>
-      </c>
-      <c r="O6">
-        <v>11.5646982760376</v>
+      <c r="L6" s="2">
+        <v>2.536410939</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5.7907098570000004</v>
+      </c>
+      <c r="N6" s="2">
+        <v>14.11341105</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10.13110258</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>10.827778037748971</v>
+        <v>8.1429086065000007</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S6" s="4">
-        <v>0.39203288772553602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4.522566074672163E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -10203,30 +6256,30 @@
       <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>5.2118062438452997</v>
-      </c>
-      <c r="M7">
-        <v>22.537900770081801</v>
-      </c>
-      <c r="N7">
-        <v>16.914308790825899</v>
-      </c>
-      <c r="O7">
-        <v>46.209926174437499</v>
+      <c r="L7" s="2">
+        <v>4.5721304869999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>17.747740919999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>14.2956337</v>
+      </c>
+      <c r="O7" s="2">
+        <v>41.202170870000003</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>22.718485494797626</v>
+        <v>19.454418994249998</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S7" s="4">
-        <v>8.8049331588304011E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4.0466333209166576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -10260,30 +6313,30 @@
       <c r="K8" s="2">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>5.65308099807236</v>
-      </c>
-      <c r="M8">
-        <v>19.473753584180301</v>
-      </c>
-      <c r="N8">
-        <v>25.7034218233681</v>
-      </c>
-      <c r="O8">
-        <v>34.253827124175103</v>
+      <c r="L8" s="2">
+        <v>4.1961306799999996</v>
+      </c>
+      <c r="M8" s="2">
+        <v>14.27210932</v>
+      </c>
+      <c r="N8" s="2">
+        <v>21.600860600000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>30.603123400000001</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>21.271020882448965</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="4">
-        <v>4.8477416151805004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17.668056</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -10317,30 +6370,24 @@
       <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>4.0187749940723902</v>
-      </c>
-      <c r="M9">
-        <v>30.367878652590701</v>
-      </c>
-      <c r="N9">
-        <v>13.540494887863799</v>
-      </c>
-      <c r="O9">
-        <v>39.059697314484602</v>
+      <c r="L9" s="2">
+        <v>3.5032993349999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>26.212634749999999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>9.1529585170000001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>34.925257199999997</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>21.746711462252875</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>18.448537450499998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -10374,24 +6421,27 @@
       <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10">
-        <v>8.0213779808467507</v>
-      </c>
-      <c r="M10">
-        <v>48.186724052422399</v>
-      </c>
-      <c r="N10">
-        <v>13.2502319460905</v>
-      </c>
-      <c r="O10">
-        <v>23.132269139406901</v>
+      <c r="L10" s="2">
+        <v>6.1347820659999996</v>
+      </c>
+      <c r="M10" s="2">
+        <v>40.122930320000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>11.222732239999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>19.86463676</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>23.147650779691638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19.336270346500001</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -10425,27 +6475,40 @@
       <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="L11">
-        <v>7.54562813264784</v>
-      </c>
-      <c r="M11">
-        <v>15.5055865406122</v>
-      </c>
-      <c r="N11">
-        <v>17.2066931265474</v>
-      </c>
-      <c r="O11">
-        <v>28.320893757197499</v>
+      <c r="L11" s="2">
+        <v>5.0164250939999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>12.377047900000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>14.970959499999999</v>
+      </c>
+      <c r="O11" s="2">
+        <v>25.485893180000001</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>17.144700389251234</v>
-      </c>
-      <c r="R11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14.462581418500001</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>18</v>
       </c>
@@ -10479,40 +6542,42 @@
       <c r="K12" s="2">
         <v>6</v>
       </c>
-      <c r="L12">
-        <v>5.2317999652273697</v>
-      </c>
-      <c r="M12">
-        <v>24.3977867931935</v>
-      </c>
-      <c r="N12">
-        <v>17.252656276201201</v>
-      </c>
-      <c r="O12">
-        <v>33.505771467987401</v>
+      <c r="L12" s="2">
+        <v>4.0413116000000002</v>
+      </c>
+      <c r="M12" s="2">
+        <v>20.012632490000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>14.6747715</v>
+      </c>
+      <c r="O12" s="2">
+        <v>29.583151449999999</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>20.09700362565237</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17.077966759999999</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="4">
+        <v>10</v>
+      </c>
+      <c r="T12" s="4">
+        <v>165.98424928365495</v>
+      </c>
+      <c r="U12" s="4">
+        <v>16.598424928365496</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1.0136293378047927</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0.4658309954712731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -10546,42 +6611,38 @@
       <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>8.0378192088021301</v>
-      </c>
-      <c r="M13">
-        <v>22.368502311758999</v>
-      </c>
-      <c r="N13">
-        <v>12.4767762771906</v>
-      </c>
-      <c r="O13">
-        <v>28.308244674262401</v>
+      <c r="L13" s="2">
+        <v>6.2118150290000003</v>
+      </c>
+      <c r="M13" s="2">
+        <v>17.895801859999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10.22929261</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25.077708390000002</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>17.797835618003532</v>
+        <v>14.85365447225</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S13" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T13" s="4">
-        <v>303.07585433877034</v>
+        <v>327.5048246790596</v>
       </c>
       <c r="U13" s="4">
-        <v>30.307585433877033</v>
-      </c>
-      <c r="V13" s="4">
-        <v>1.2896516269075902</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0.30023588951490882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>16.37524123395298</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>21</v>
       </c>
@@ -10615,38 +6676,36 @@
       <c r="K14" s="2">
         <v>9</v>
       </c>
-      <c r="L14">
-        <v>7.2134665415478398</v>
-      </c>
-      <c r="M14">
-        <v>14.7953582439855</v>
-      </c>
-      <c r="N14">
-        <v>9.7862812425437902</v>
-      </c>
-      <c r="O14">
-        <v>33.679872567072401</v>
+      <c r="L14" s="2">
+        <v>6.583793483</v>
+      </c>
+      <c r="M14" s="2">
+        <v>12.29085517</v>
+      </c>
+      <c r="N14" s="2">
+        <v>8.2863307269999993</v>
+      </c>
+      <c r="O14" s="2">
+        <v>29.17850091</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>16.368744648787384</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="4">
-        <v>20</v>
-      </c>
-      <c r="T14" s="4">
-        <v>470.01197535105689</v>
-      </c>
-      <c r="U14" s="4">
-        <v>23.500598767552844</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14.084870072499999</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="5">
+        <v>30</v>
+      </c>
+      <c r="T14" s="5">
+        <v>493.48907396271454</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>22</v>
       </c>
@@ -10680,36 +6739,24 @@
       <c r="K15" s="2">
         <v>7</v>
       </c>
-      <c r="L15">
-        <v>11.7128998424913</v>
-      </c>
-      <c r="M15">
-        <v>20.753711246047601</v>
-      </c>
-      <c r="N15">
-        <v>42.712558168274398</v>
-      </c>
-      <c r="O15">
-        <v>39.544348246240197</v>
+      <c r="L15" s="2">
+        <v>7.5591002620000003</v>
+      </c>
+      <c r="M15" s="2">
+        <v>17.079608230000002</v>
+      </c>
+      <c r="N15" s="2">
+        <v>25.156238139999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>33.229871230000001</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>28.680879375763375</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="5">
-        <v>30</v>
-      </c>
-      <c r="T15" s="5">
-        <v>773.08782968982723</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20.756204465500002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>24</v>
       </c>
@@ -10743,21 +6790,46 @@
       <c r="K16" s="2">
         <v>6</v>
       </c>
-      <c r="L16">
-        <v>20.5166855592466</v>
-      </c>
-      <c r="M16">
-        <v>15.496660225140101</v>
-      </c>
-      <c r="N16">
-        <v>20.620149051793799</v>
-      </c>
-      <c r="O16">
-        <v>30.594757926226901</v>
+      <c r="L16" s="2">
+        <v>18.193057100000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13.00527142</v>
+      </c>
+      <c r="N16" s="2">
+        <v>16.307705250000001</v>
+      </c>
+      <c r="O16" s="2">
+        <v>27.585946029999999</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>21.807063190601852</v>
+        <v>18.772994950000001</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -10794,46 +6866,48 @@
       <c r="K17" s="2">
         <v>9</v>
       </c>
-      <c r="L17">
-        <v>6.0324394404835404</v>
-      </c>
-      <c r="M17">
-        <v>16.857426772544802</v>
-      </c>
-      <c r="N17">
-        <v>17.7772927049961</v>
-      </c>
-      <c r="O17">
-        <v>44.471432215625697</v>
+      <c r="L17" s="2">
+        <v>4.3615118669999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>13.42349652</v>
+      </c>
+      <c r="N17" s="2">
+        <v>15.15919351</v>
+      </c>
+      <c r="O17" s="2">
+        <v>37.692565190000003</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>21.284647783412534</v>
-      </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>78</v>
+        <v>17.659191771750002</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="4">
+        <v>20.397667471677465</v>
+      </c>
+      <c r="T17" s="4">
+        <v>4.3430858605568412</v>
+      </c>
+      <c r="U17" s="4">
+        <v>4.6965839788997892</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1.3851455412525082E-4</v>
+      </c>
+      <c r="W17" s="4">
+        <v>11.338149118218682</v>
+      </c>
+      <c r="X17" s="4">
+        <v>29.45718582513625</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>11.338149118218682</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>29.45718582513625</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -10870,48 +6944,48 @@
       <c r="K18" s="2">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>5.7607378430099203</v>
-      </c>
-      <c r="M18">
-        <v>13.1633850985962</v>
-      </c>
-      <c r="N18">
-        <v>21.1632614096387</v>
-      </c>
-      <c r="O18">
-        <v>17.1756600896333</v>
+      <c r="L18" s="2">
+        <v>4.63185044</v>
+      </c>
+      <c r="M18" s="2">
+        <v>7.8610779040000001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>16.30877512</v>
+      </c>
+      <c r="O18" s="2">
+        <v>14.326166539999999</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>14.31576111021953</v>
+        <v>10.781967501</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="S18" s="4">
-        <v>23.272863338483365</v>
+        <v>7.3060221431979488E-2</v>
       </c>
       <c r="T18" s="4">
-        <v>5.2028825927213393</v>
+        <v>0.24142601570680192</v>
       </c>
       <c r="U18" s="4">
-        <v>4.4730710185621581</v>
+        <v>0.30261950526784548</v>
       </c>
       <c r="V18" s="4">
-        <v>2.32939201380596E-4</v>
+        <v>0.76530475599440773</v>
       </c>
       <c r="W18" s="4">
-        <v>12.419840429650799</v>
+        <v>-0.43054562255144385</v>
       </c>
       <c r="X18" s="4">
-        <v>34.125886247315933</v>
+        <v>0.57666606541540277</v>
       </c>
       <c r="Y18" s="4">
-        <v>12.419840429650799</v>
+        <v>-0.43054562255144385</v>
       </c>
       <c r="Z18" s="4">
-        <v>34.125886247315933</v>
+        <v>0.57666606541540277</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -10948,48 +7022,48 @@
       <c r="K19" s="2">
         <v>7</v>
       </c>
-      <c r="L19">
-        <v>8.5478191773307604</v>
-      </c>
-      <c r="M19">
-        <v>12.8588201477894</v>
-      </c>
-      <c r="N19">
-        <v>23.738783974803699</v>
-      </c>
-      <c r="O19">
-        <v>16.447740790464199</v>
+      <c r="L19" s="2">
+        <v>7.1731229120000002</v>
+      </c>
+      <c r="M19" s="2">
+        <v>11.118844709999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>19.300208009999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>15.03626891</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>15.398291022597014</v>
+        <v>13.157111135499999</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="S19" s="4">
-        <v>1.1297803787211787E-2</v>
+        <v>0.36144646357743582</v>
       </c>
       <c r="T19" s="4">
-        <v>0.28922090303550613</v>
+        <v>2.3120643832990559</v>
       </c>
       <c r="U19" s="4">
-        <v>3.9062888154473452E-2</v>
+        <v>0.15633062218695326</v>
       </c>
       <c r="V19" s="4">
-        <v>0.96922755320880749</v>
+        <v>0.87733967171190685</v>
       </c>
       <c r="W19" s="4">
-        <v>-0.59200642813007898</v>
+        <v>-4.4614353277096885</v>
       </c>
       <c r="X19" s="4">
-        <v>0.61460203570450256</v>
+        <v>5.1843282548645604</v>
       </c>
       <c r="Y19" s="4">
-        <v>-0.59200642813007898</v>
+        <v>-4.4614353277096885</v>
       </c>
       <c r="Z19" s="4">
-        <v>0.61460203570450256</v>
+        <v>5.1843282548645604</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -11026,48 +7100,48 @@
       <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>5.8023616471156299</v>
-      </c>
-      <c r="M20">
-        <v>19.932235484659699</v>
-      </c>
-      <c r="N20">
-        <v>15.7562306716991</v>
-      </c>
-      <c r="O20">
-        <v>40.709381474538702</v>
+      <c r="L20" s="2">
+        <v>4.1662303410000003</v>
+      </c>
+      <c r="M20" s="2">
+        <v>16.090324549999998</v>
+      </c>
+      <c r="N20" s="2">
+        <v>13.33575984</v>
+      </c>
+      <c r="O20" s="2">
+        <v>36.466756619999998</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>20.550052319503283</v>
+        <v>17.51476783775</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="S20" s="4">
-        <v>-0.21293977175837375</v>
+        <v>-0.62513450295841733</v>
       </c>
       <c r="T20" s="4">
-        <v>2.7697816528028114</v>
+        <v>1.8252892054118741</v>
       </c>
       <c r="U20" s="4">
-        <v>-7.687962390208436E-2</v>
+        <v>-0.34248518048807314</v>
       </c>
       <c r="V20" s="4">
-        <v>0.93948320687396281</v>
+        <v>0.73555891990335853</v>
       </c>
       <c r="W20" s="4">
-        <v>-5.9906030564126711</v>
+        <v>-4.4326210661365417</v>
       </c>
       <c r="X20" s="4">
-        <v>5.5647235128959229</v>
+        <v>3.1823520602197068</v>
       </c>
       <c r="Y20" s="4">
-        <v>-5.9906030564126711</v>
+        <v>-4.4326210661365417</v>
       </c>
       <c r="Z20" s="4">
-        <v>5.5647235128959229</v>
+        <v>3.1823520602197068</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -11104,48 +7178,48 @@
       <c r="K21" s="2">
         <v>4</v>
       </c>
-      <c r="L21">
-        <v>4.9345412215045696</v>
-      </c>
-      <c r="M21">
-        <v>18.953267289987899</v>
-      </c>
-      <c r="N21">
-        <v>16.2188582036217</v>
-      </c>
-      <c r="O21">
-        <v>28.600203267631901</v>
+      <c r="L21" s="2">
+        <v>3.7525030560000001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>16.047538190000001</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13.752836520000001</v>
+      </c>
+      <c r="O21" s="2">
+        <v>25.174771939999999</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>17.176717495686518</v>
+        <v>14.6819124265</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="S21" s="4">
-        <v>-0.67933482495972575</v>
+        <v>0.85616868389135525</v>
       </c>
       <c r="T21" s="4">
-        <v>2.1866400385420861</v>
+        <v>0.71363216077077951</v>
       </c>
       <c r="U21" s="4">
-        <v>-0.31067519709950225</v>
+        <v>1.1997338838633966</v>
       </c>
       <c r="V21" s="4">
-        <v>0.75926212932510639</v>
+        <v>0.2442626742518641</v>
       </c>
       <c r="W21" s="4">
-        <v>-5.2405860176865389</v>
+        <v>-0.63244191826984786</v>
       </c>
       <c r="X21" s="4">
-        <v>3.8819163677670878</v>
+        <v>2.3447792860525585</v>
       </c>
       <c r="Y21" s="4">
-        <v>-5.2405860176865389</v>
+        <v>-0.63244191826984786</v>
       </c>
       <c r="Z21" s="4">
-        <v>3.8819163677670878</v>
+        <v>2.3447792860525585</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -11182,48 +7256,48 @@
       <c r="K22" s="2">
         <v>8</v>
       </c>
-      <c r="L22">
-        <v>10.959954917649901</v>
-      </c>
-      <c r="M22">
-        <v>33.463832500662598</v>
-      </c>
-      <c r="N22">
-        <v>17.356830040559402</v>
-      </c>
-      <c r="O22">
-        <v>22.256574744821201</v>
+      <c r="L22" s="2">
+        <v>9.0915864039999992</v>
+      </c>
+      <c r="M22" s="2">
+        <v>26.75588084</v>
+      </c>
+      <c r="N22" s="2">
+        <v>14.380485009999999</v>
+      </c>
+      <c r="O22" s="2">
+        <v>19.547093</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>21.009298050923277</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0.88838503185563888</v>
-      </c>
-      <c r="T22" s="8">
-        <v>0.85490926638147435</v>
-      </c>
-      <c r="U22" s="8">
-        <v>1.0391570974728763</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0.31113223535493206</v>
-      </c>
-      <c r="W22" s="8">
-        <v>-0.89492444854499287</v>
-      </c>
-      <c r="X22" s="8">
-        <v>2.6716945122562707</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>-0.89492444854499287</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>2.6716945122562707</v>
+        <v>17.443761313500001</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="4">
+        <v>-2.0447934050571108</v>
+      </c>
+      <c r="T22" s="4">
+        <v>4.1318273625311086</v>
+      </c>
+      <c r="U22" s="4">
+        <v>-0.49488839335351481</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.62607179107830602</v>
+      </c>
+      <c r="W22" s="4">
+        <v>-10.66363425370993</v>
+      </c>
+      <c r="X22" s="4">
+        <v>6.574047443595707</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>-10.66363425370993</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>6.574047443595707</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -11260,48 +7334,48 @@
       <c r="K23" s="2">
         <v>3</v>
       </c>
-      <c r="L23">
-        <v>6.3854130591081599</v>
-      </c>
-      <c r="M23">
-        <v>74.654291542078496</v>
-      </c>
-      <c r="N23">
-        <v>23.0860706540325</v>
-      </c>
-      <c r="O23">
-        <v>37.497542821435303</v>
+      <c r="L23" s="2">
+        <v>5.7672985700000003</v>
+      </c>
+      <c r="M23" s="2">
+        <v>64.847035480000002</v>
+      </c>
+      <c r="N23" s="2">
+        <v>18.33015743</v>
+      </c>
+      <c r="O23" s="2">
+        <v>32.530105890000002</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>35.405829519163618</v>
+        <v>30.368649342499999</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="S23" s="4">
-        <v>1.0910527940645622</v>
+        <v>-0.58624057740918978</v>
       </c>
       <c r="T23" s="4">
-        <v>4.949801443226951</v>
+        <v>1.4761866093780913</v>
       </c>
       <c r="U23" s="4">
-        <v>0.22042354760664223</v>
+        <v>-0.39713175399698925</v>
       </c>
       <c r="V23" s="4">
-        <v>0.82777580140855034</v>
+        <v>0.69547652853534991</v>
       </c>
       <c r="W23" s="4">
-        <v>-9.2340520877306815</v>
+        <v>-3.665511885915222</v>
       </c>
       <c r="X23" s="4">
-        <v>11.416157675859807</v>
+        <v>2.4930307310968423</v>
       </c>
       <c r="Y23" s="4">
-        <v>-9.2340520877306815</v>
+        <v>-3.665511885915222</v>
       </c>
       <c r="Z23" s="4">
-        <v>11.416157675859807</v>
+        <v>2.4930307310968423</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -11338,48 +7412,48 @@
       <c r="K24" s="2">
         <v>1</v>
       </c>
-      <c r="L24">
-        <v>21.794123133260399</v>
-      </c>
-      <c r="M24">
-        <v>20.197225925414099</v>
-      </c>
-      <c r="N24">
-        <v>19.323441444406299</v>
-      </c>
-      <c r="O24">
-        <v>41.505405741578201</v>
+      <c r="L24" s="2">
+        <v>14.323351349999999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>15.99135106</v>
+      </c>
+      <c r="N24" s="2">
+        <v>16.139538600000002</v>
+      </c>
+      <c r="O24" s="2">
+        <v>36.405971379999997</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>25.70504906116475</v>
+        <v>20.7150530975</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S24" s="4">
-        <v>-0.35033358382990759</v>
+        <v>2.839984088666462</v>
       </c>
       <c r="T24" s="4">
-        <v>1.7684259211391393</v>
+        <v>2.2153241007661633</v>
       </c>
       <c r="U24" s="4">
-        <v>-0.19810475499264266</v>
+        <v>1.2819722801211173</v>
       </c>
       <c r="V24" s="4">
-        <v>0.84496286239863561</v>
+        <v>0.21451450604580002</v>
       </c>
       <c r="W24" s="4">
-        <v>-4.0392054145236189</v>
+        <v>-1.7811010093788759</v>
       </c>
       <c r="X24" s="4">
-        <v>3.3385382468638038</v>
+        <v>7.4610691867118</v>
       </c>
       <c r="Y24" s="4">
-        <v>-4.0392054145236189</v>
+        <v>-1.7811010093788759</v>
       </c>
       <c r="Z24" s="4">
-        <v>3.3385382468638038</v>
+        <v>7.4610691867118</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -11416,48 +7490,48 @@
       <c r="K25" s="2">
         <v>11</v>
       </c>
-      <c r="L25">
-        <v>6.6017456808741803</v>
-      </c>
-      <c r="M25">
-        <v>16.941527368697201</v>
-      </c>
-      <c r="N25">
-        <v>21.0159499254659</v>
-      </c>
-      <c r="O25">
-        <v>29.021930435784</v>
+      <c r="L25" s="2">
+        <v>5.7507802779999997</v>
+      </c>
+      <c r="M25" s="2">
+        <v>13.314531000000001</v>
+      </c>
+      <c r="N25" s="2">
+        <v>17.736958489999999</v>
+      </c>
+      <c r="O25" s="2">
+        <v>25.834016269999999</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>18.395288352705322</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S25" s="8">
-        <v>3.4715893297925695</v>
-      </c>
-      <c r="T25" s="8">
-        <v>2.6538897850926952</v>
-      </c>
-      <c r="U25" s="8">
-        <v>1.3081136033956713</v>
-      </c>
-      <c r="V25" s="8">
-        <v>0.20567057242335962</v>
-      </c>
-      <c r="W25" s="8">
-        <v>-2.0643277549830539</v>
-      </c>
-      <c r="X25" s="8">
-        <v>9.0075064145681925</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>-2.0643277549830539</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>9.0075064145681925</v>
+        <v>15.6590715095</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="4">
+        <v>-0.12236170705037785</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0.3128640562384491</v>
+      </c>
+      <c r="U25" s="4">
+        <v>-0.39110183675787918</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.69985725090809847</v>
+      </c>
+      <c r="W25" s="4">
+        <v>-0.77498469232711453</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0.53026127822635882</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>-0.77498469232711453</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0.53026127822635882</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -11494,51 +7568,51 @@
       <c r="K26" s="2">
         <v>9</v>
       </c>
-      <c r="L26">
-        <v>6.8592879478961004</v>
-      </c>
-      <c r="M26">
-        <v>10.039383049788499</v>
-      </c>
-      <c r="N26">
-        <v>10.2212702063552</v>
-      </c>
-      <c r="O26">
-        <v>16.1373104966735</v>
+      <c r="L26" s="2">
+        <v>3.9831555380000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>9.0027915870000008</v>
+      </c>
+      <c r="N26" s="2">
+        <v>8.7364595250000008</v>
+      </c>
+      <c r="O26" s="2">
+        <v>13.593543309999999</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>10.814312925178324</v>
+        <v>8.8289874900000012</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S26" s="4">
-        <v>4.3131847903152443E-2</v>
+        <v>-0.1033366578417578</v>
       </c>
       <c r="T26" s="4">
-        <v>0.37480146705699968</v>
+        <v>0.29626090991037352</v>
       </c>
       <c r="U26" s="4">
-        <v>0.115079186433902</v>
+        <v>-0.34880287741308758</v>
       </c>
       <c r="V26" s="4">
-        <v>0.90952990515226473</v>
+        <v>0.73088250382580511</v>
       </c>
       <c r="W26" s="4">
-        <v>-0.73869031235936999</v>
+        <v>-0.72132608676852239</v>
       </c>
       <c r="X26" s="4">
-        <v>0.82495400816567499</v>
+        <v>0.51465277108500673</v>
       </c>
       <c r="Y26" s="4">
-        <v>-0.73869031235936999</v>
+        <v>-0.72132608676852239</v>
       </c>
       <c r="Z26" s="4">
-        <v>0.82495400816567499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.51465277108500673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>49</v>
       </c>
@@ -11572,51 +7646,51 @@
       <c r="K27" s="2">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>16.659761085453301</v>
-      </c>
-      <c r="M27">
-        <v>8.3049248890933498</v>
-      </c>
-      <c r="N27">
-        <v>47.132883031256704</v>
-      </c>
-      <c r="O27">
-        <v>26.4838632639411</v>
+      <c r="L27" s="2">
+        <v>13.06091133</v>
+      </c>
+      <c r="M27" s="2">
+        <v>7.2902473800000003</v>
+      </c>
+      <c r="N27" s="2">
+        <v>44.235292459999997</v>
+      </c>
+      <c r="O27" s="2">
+        <v>21.08689472</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>24.645358067436113</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" s="4">
-        <v>-0.10842356196771434</v>
-      </c>
-      <c r="T27" s="4">
-        <v>0.35491141104883361</v>
-      </c>
-      <c r="U27" s="4">
-        <v>-0.30549471950564006</v>
-      </c>
-      <c r="V27" s="4">
-        <v>0.76314625086602927</v>
-      </c>
-      <c r="W27" s="4">
-        <v>-0.8487557924331316</v>
-      </c>
-      <c r="X27" s="4">
-        <v>0.631908668497703</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>-0.8487557924331316</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>0.631908668497703</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>21.418336472500002</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="5">
+        <v>-0.9575698155297343</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0.45827895214619158</v>
+      </c>
+      <c r="U27" s="5">
+        <v>-2.0894911517216448</v>
+      </c>
+      <c r="V27" s="5">
+        <v>4.9649271545950766E-2</v>
+      </c>
+      <c r="W27" s="5">
+        <v>-1.9135229583579925</v>
+      </c>
+      <c r="X27" s="5">
+        <v>-1.6166727014762516E-3</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>-1.9135229583579925</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>-1.6166727014762516E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>54</v>
       </c>
@@ -11650,48 +7724,21 @@
       <c r="K28" s="2">
         <v>5</v>
       </c>
-      <c r="L28">
-        <v>6.9831628457213499</v>
-      </c>
-      <c r="M28">
-        <v>22.454490917979498</v>
-      </c>
-      <c r="N28">
-        <v>19.346375618342201</v>
-      </c>
-      <c r="O28">
-        <v>34.083186139267603</v>
+      <c r="L28" s="2">
+        <v>5.2817920569999997</v>
+      </c>
+      <c r="M28" s="2">
+        <v>17.467160849999999</v>
+      </c>
+      <c r="N28" s="2">
+        <v>16.683802799999999</v>
+      </c>
+      <c r="O28" s="2">
+        <v>30.615976750000002</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>20.71680388032766</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="9">
-        <v>-1.1684148979234568</v>
-      </c>
-      <c r="T28" s="9">
-        <v>0.54900401679516564</v>
-      </c>
-      <c r="U28" s="9">
-        <v>-2.1282447162119662</v>
-      </c>
-      <c r="V28" s="9">
-        <v>4.5940025629691225E-2</v>
-      </c>
-      <c r="W28" s="9">
-        <v>-2.3136172093603071</v>
-      </c>
-      <c r="X28" s="9">
-        <v>-2.3212586486606401E-2</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>-2.3136172093603071</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>-2.3212586486606401E-2</v>
+        <v>17.51218311425</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -11728,21 +7775,21 @@
       <c r="K29" s="2">
         <v>4</v>
       </c>
-      <c r="L29">
-        <v>4.1771627323877603</v>
-      </c>
-      <c r="M29">
-        <v>21.624270109819701</v>
-      </c>
-      <c r="N29">
-        <v>20.343313310544701</v>
-      </c>
-      <c r="O29">
-        <v>37.007178094874398</v>
+      <c r="L29" s="2">
+        <v>3.7794817840000001</v>
+      </c>
+      <c r="M29" s="2">
+        <v>17.907133470000002</v>
+      </c>
+      <c r="N29" s="2">
+        <v>16.144503539999999</v>
+      </c>
+      <c r="O29" s="2">
+        <v>32.653213620000002</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>20.787981061906642</v>
+        <v>17.621083103500002</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -11779,21 +7826,21 @@
       <c r="K30" s="2">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>15.1153679882782</v>
-      </c>
-      <c r="M30">
-        <v>15.279912482430699</v>
-      </c>
-      <c r="N30">
-        <v>14.384562520920401</v>
-      </c>
-      <c r="O30">
-        <v>28.514030638000001</v>
+      <c r="L30" s="2">
+        <v>12.7651612</v>
+      </c>
+      <c r="M30" s="2">
+        <v>11.56281766</v>
+      </c>
+      <c r="N30" s="2">
+        <v>11.17475104</v>
+      </c>
+      <c r="O30" s="2">
+        <v>24.821757359999999</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>18.323468407407326</v>
+        <v>15.081121815000001</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -11830,24 +7877,27 @@
       <c r="K31" s="2">
         <v>7</v>
       </c>
-      <c r="L31">
-        <v>8.7858341451000594</v>
-      </c>
-      <c r="M31">
-        <v>20.623739444458501</v>
-      </c>
-      <c r="N31">
-        <v>8.3888092836235906</v>
-      </c>
-      <c r="O31">
-        <v>40.152881502527599</v>
+      <c r="L31" s="2">
+        <v>6.453991341</v>
+      </c>
+      <c r="M31" s="2">
+        <v>14.954190130000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>6.2480532489999998</v>
+      </c>
+      <c r="O31" s="2">
+        <v>35.796709419999999</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>19.487816093927435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>15.863236035</v>
+      </c>
+      <c r="R31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>61</v>
       </c>
@@ -11881,21 +7931,373 @@
       <c r="K32" s="2">
         <v>7</v>
       </c>
-      <c r="L32">
-        <v>5.4235317789783002</v>
-      </c>
-      <c r="M32">
-        <v>21.8571592230732</v>
-      </c>
-      <c r="N32">
-        <v>17.832247139914902</v>
-      </c>
-      <c r="O32">
-        <v>39.745049059115502</v>
+      <c r="L32" s="2">
+        <v>4.5066270609999997</v>
+      </c>
+      <c r="M32" s="2">
+        <v>16.672681499999999</v>
+      </c>
+      <c r="N32" s="2">
+        <v>15.3383533</v>
+      </c>
+      <c r="O32" s="2">
+        <v>35.238750600000003</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>21.214496800270474</v>
+        <v>17.939103115249999</v>
+      </c>
+    </row>
+    <row r="33" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4">
+        <v>17.321696253927726</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0.93301204282227346</v>
+      </c>
+    </row>
+    <row r="35" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R35" s="4">
+        <v>2</v>
+      </c>
+      <c r="S35" s="4">
+        <v>17.567836940753253</v>
+      </c>
+      <c r="T35" s="4">
+        <v>-3.3363640952532521</v>
+      </c>
+    </row>
+    <row r="36" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R36" s="4">
+        <v>3</v>
+      </c>
+      <c r="S36" s="4">
+        <v>18.852155202206927</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0.96917711779307325</v>
+      </c>
+    </row>
+    <row r="37" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R37" s="4">
+        <v>4</v>
+      </c>
+      <c r="S37" s="4">
+        <v>16.00131204602274</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.28446131872725999</v>
+      </c>
+    </row>
+    <row r="38" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R38" s="4">
+        <v>5</v>
+      </c>
+      <c r="S38" s="4">
+        <v>12.452723579455387</v>
+      </c>
+      <c r="T38" s="4">
+        <v>-4.3098149729553867</v>
+      </c>
+    </row>
+    <row r="39" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R39" s="4">
+        <v>6</v>
+      </c>
+      <c r="S39" s="4">
+        <v>16.725041715477701</v>
+      </c>
+      <c r="T39" s="4">
+        <v>2.7293772787722972</v>
+      </c>
+    </row>
+    <row r="40" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R40" s="4">
+        <v>7</v>
+      </c>
+      <c r="S40" s="4">
+        <v>16.437927843567802</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1.2301281564321975</v>
+      </c>
+    </row>
+    <row r="41" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R41" s="4">
+        <v>8</v>
+      </c>
+      <c r="S41" s="4">
+        <v>18.338385918728306</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0.11015153177169168</v>
+      </c>
+    </row>
+    <row r="42" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R42" s="4">
+        <v>9</v>
+      </c>
+      <c r="S42" s="4">
+        <v>17.072975666137346</v>
+      </c>
+      <c r="T42" s="4">
+        <v>2.2632946803626552</v>
+      </c>
+    </row>
+    <row r="43" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R43" s="4">
+        <v>10</v>
+      </c>
+      <c r="S43" s="4">
+        <v>15.007291279189305</v>
+      </c>
+      <c r="T43" s="4">
+        <v>-0.54470986068930394</v>
+      </c>
+    </row>
+    <row r="44" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R44" s="4">
+        <v>11</v>
+      </c>
+      <c r="S44" s="4">
+        <v>17.283646155510482</v>
+      </c>
+      <c r="T44" s="4">
+        <v>-0.20567939551048298</v>
+      </c>
+    </row>
+    <row r="45" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R45" s="4">
+        <v>12</v>
+      </c>
+      <c r="S45" s="4">
+        <v>18.09259313415</v>
+      </c>
+      <c r="T45" s="4">
+        <v>-3.2389386619000007</v>
+      </c>
+    </row>
+    <row r="46" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R46" s="4">
+        <v>13</v>
+      </c>
+      <c r="S46" s="4">
+        <v>13.725630202446219</v>
+      </c>
+      <c r="T46" s="4">
+        <v>0.35923987005378066</v>
+      </c>
+    </row>
+    <row r="47" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R47" s="4">
+        <v>14</v>
+      </c>
+      <c r="S47" s="4">
+        <v>17.670483483035401</v>
+      </c>
+      <c r="T47" s="4">
+        <v>3.0857209824646006</v>
+      </c>
+    </row>
+    <row r="48" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R48" s="4">
+        <v>15</v>
+      </c>
+      <c r="S48" s="4">
+        <v>15.807796959900703</v>
+      </c>
+      <c r="T48" s="4">
+        <v>2.9651979900992984</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R49" s="4">
+        <v>16</v>
+      </c>
+      <c r="S49" s="4">
+        <v>15.153174673774874</v>
+      </c>
+      <c r="T49" s="4">
+        <v>2.5060170979751284</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R50" s="4">
+        <v>17</v>
+      </c>
+      <c r="S50" s="4">
+        <v>17.88264569563438</v>
+      </c>
+      <c r="T50" s="4">
+        <v>-7.10067819463438</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R51" s="4">
+        <v>18</v>
+      </c>
+      <c r="S51" s="4">
+        <v>12.84859718556535</v>
+      </c>
+      <c r="T51" s="4">
+        <v>0.30851394993464965</v>
+      </c>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R52" s="4">
+        <v>19</v>
+      </c>
+      <c r="S52" s="4">
+        <v>19.788843912622575</v>
+      </c>
+      <c r="T52" s="4">
+        <v>-2.2740760748725748</v>
+      </c>
+    </row>
+    <row r="53" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R53" s="4">
+        <v>20</v>
+      </c>
+      <c r="S53" s="4">
+        <v>18.99211247088644</v>
+      </c>
+      <c r="T53" s="4">
+        <v>-4.3102000443864394</v>
+      </c>
+    </row>
+    <row r="54" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R54" s="4">
+        <v>21</v>
+      </c>
+      <c r="S54" s="4">
+        <v>19.27406451920287</v>
+      </c>
+      <c r="T54" s="4">
+        <v>-1.8303032057028688</v>
+      </c>
+    </row>
+    <row r="55" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R55" s="4">
+        <v>22</v>
+      </c>
+      <c r="S55" s="4">
+        <v>19.762034019941279</v>
+      </c>
+      <c r="T55" s="4">
+        <v>10.606615322558721</v>
+      </c>
+    </row>
+    <row r="56" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R56" s="4">
+        <v>23</v>
+      </c>
+      <c r="S56" s="4">
+        <v>20.112650437284454</v>
+      </c>
+      <c r="T56" s="4">
+        <v>0.60240266021554589</v>
+      </c>
+    </row>
+    <row r="57" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R57" s="4">
+        <v>24</v>
+      </c>
+      <c r="S57" s="4">
+        <v>11.763874732092086</v>
+      </c>
+      <c r="T57" s="4">
+        <v>3.8951967774079144</v>
+      </c>
+    </row>
+    <row r="58" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R58" s="4">
+        <v>25</v>
+      </c>
+      <c r="S58" s="4">
+        <v>12.907148351510816</v>
+      </c>
+      <c r="T58" s="4">
+        <v>-4.0781608615108151</v>
+      </c>
+    </row>
+    <row r="59" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R59" s="4">
+        <v>26</v>
+      </c>
+      <c r="S59" s="4">
+        <v>20.029996721359684</v>
+      </c>
+      <c r="T59" s="4">
+        <v>1.3883397511403182</v>
+      </c>
+    </row>
+    <row r="60" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R60" s="4">
+        <v>27</v>
+      </c>
+      <c r="S60" s="4">
+        <v>17.169238708411399</v>
+      </c>
+      <c r="T60" s="4">
+        <v>0.34294440583860109</v>
+      </c>
+    </row>
+    <row r="61" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R61" s="4">
+        <v>28</v>
+      </c>
+      <c r="S61" s="4">
+        <v>19.681689706137384</v>
+      </c>
+      <c r="T61" s="4">
+        <v>-2.0606066026373817</v>
+      </c>
+    </row>
+    <row r="62" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R62" s="4">
+        <v>29</v>
+      </c>
+      <c r="S62" s="4">
+        <v>18.130838714161037</v>
+      </c>
+      <c r="T62" s="4">
+        <v>-3.0497168991610355</v>
+      </c>
+    </row>
+    <row r="63" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R63" s="4">
+        <v>30</v>
+      </c>
+      <c r="S63" s="4">
+        <v>16.83241315279307</v>
+      </c>
+      <c r="T63" s="4">
+        <v>-0.9691771177930697</v>
+      </c>
+    </row>
+    <row r="64" spans="18:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="5">
+        <v>31</v>
+      </c>
+      <c r="S64" s="5">
+        <v>15.210468062612907</v>
+      </c>
+      <c r="T64" s="5">
+        <v>2.7286350526370917</v>
       </c>
     </row>
   </sheetData>
@@ -11907,8 +8309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:M57"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13648,4 +10050,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>